--- a/docs/support-file/template/1_hcm_clb_tcp_udp_listener_template.xlsx
+++ b/docs/support-file/template/1_hcm_clb_tcp_udp_listener_template.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaosongwu/Downloads/2025-06-30/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\tencent\hcm\docs\support-file\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D290231-2965-C84A-B08F-9CDF30168559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBC4E61-15C2-4291-AA0B-358A98A06521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="41120" windowHeight="25820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="批量创建监听器-TCP-UDP" sheetId="1" r:id="rId1"/>
-    <sheet name="示例说明" sheetId="11" r:id="rId2"/>
-    <sheet name="批量创建监听器-7层规则-启用SNI-本期不支持" sheetId="4" state="hidden" r:id="rId3"/>
-    <sheet name="批量绑定RS(副本)" sheetId="7" state="hidden" r:id="rId4"/>
-    <sheet name="工作表1" sheetId="8" state="hidden" r:id="rId5"/>
-    <sheet name="(本期不支持)批量调整权重" sheetId="9" state="hidden" r:id="rId6"/>
+    <sheet name="批量创建监听器-7层规则-启用SNI-本期不支持" sheetId="4" state="hidden" r:id="rId2"/>
+    <sheet name="批量绑定RS(副本)" sheetId="7" state="hidden" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="8" state="hidden" r:id="rId4"/>
+    <sheet name="(本期不支持)批量调整权重" sheetId="9" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="162">
   <si>
     <t>vendor(云厂商)</t>
   </si>
@@ -55,6 +54,9 @@
     <t>protocol</t>
   </si>
   <si>
+    <t>listener_port</t>
+  </si>
+  <si>
     <t>scheduler</t>
   </si>
   <si>
@@ -91,6 +93,12 @@
     <t>健康检查</t>
   </si>
   <si>
+    <t>用户备注</t>
+  </si>
+  <si>
+    <t>导出备注</t>
+  </si>
+  <si>
     <t>49.166.15.161</t>
   </si>
   <si>
@@ -173,6 +181,51 @@
   </si>
   <si>
     <t>lb-xxxxx15</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建TCP/UDP监听器说明(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Excel批量导入时，请删除说明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)：
+1.云厂商必须位于第一行，且格式必须固定，可填值为“tencent_cloud_private(腾讯云-自研云)”，“tencent_cloud_public(腾讯云-公有云)”
+2.标题有2行，一行英文标题，一行中文标题
+3.每一行一条数据
+4.clb_id和clb_vip/clb_domain必须匹配
+5.tcp/udp和http/https协议的监听器，需要分不同Excel导入
+6.如端口已存在，会默认成功,如端口，均衡方式，会话保持，健康检查任一参数和已存在的不同，则导入后会报错，提示参数不可执行
+7.端口段的表示：[10001,10100]表示从 10001到10100的100个连续端口，同一个clb_vip/clb_domain不允许重复，绑定的RS只能有一个，且端口段的长度必须相同
+8.健康检查，开启后使用默认值，暂不支持指定特定参数，enable(开启)，disable(关闭)
+9.scheduler(均衡方式):WRR(按权重轮询),LEAST_CONN(最小连接数)
+10.监听器名称，会自动生成，默认名称为“协议-端口”
+11.用户备注是填写参数用途的说明
+12.导出备注，在参数执行失败的时候，导出失败参数时由系统填写报错原因
+13.所有字段必须与示例格式相同，且参数符合校验格式要求</t>
+    </r>
   </si>
   <si>
     <t>云厂商</t>
@@ -838,76 +891,6 @@
   <si>
     <t>30
 60</t>
-  </si>
-  <si>
-    <t>listener_port</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>listener_name</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>创建TCP/UDP监听器说明(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Excel批量导入时，请删除说明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)：
-1.云厂商必须位于第一行，且格式必须固定，可填值为“tencent_cloud_private(腾讯云-自研云)”，“tencent_cloud_public(腾讯云-公有云)”
-2.标题有2行，一行英文标题，一行中文标题
-3.每一行一条数据
-4.clb_id和clb_vip/clb_domain必须匹配
-5.tcp/udp和http/https协议的监听器，需要分不同Excel导入
-6.如端口已存在，会默认成功,如端口，均衡方式，会话保持，健康检查任一参数和已存在的不同，则导入后会报错，提示参数不可执行
-7.端口段的表示：[10001,10100]表示从 10001到10100的100个连续端口，同一个clb_vip/clb_domain不允许重复，绑定的RS只能有一个，且端口段的长度必须相同
-8.健康检查，开启后使用默认值，暂不支持指定特定参数，enable(开启)，disable(关闭)
-9.scheduler(均衡方式):WRR(按权重轮询),LEAST_CONN(最小连接数)
-10.监听器名称，会自动生成，默认名称为“协议-端口”
-11.用户备注是填写参数用途的说明
-12.导出备注，在参数执行失败的时候，导出失败参数时由系统填写报错原因
-13.所有字段必须与示例格式相同，且参数符合校验格式要求</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>监听器名称(可选)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户备注(可选)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出备注(可选)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>会话保持(0为不开启)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -936,7 +919,6 @@
     <font>
       <sz val="11"/>
       <name val="宋体-简"/>
-      <family val="1"/>
       <charset val="134"/>
     </font>
     <font>
@@ -983,7 +965,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1022,12 +1004,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1219,223 +1207,10 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="9" tint="0.79998168889431442"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="9" tint="0.79998168889431442"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="0.79998168889431442"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="9" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="9" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="9" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="9" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="9" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="9" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="9" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="9" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="9" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="9" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
@@ -1443,48 +1218,18 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FF319B62"/>
       </left>
       <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FF319B62"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF002060"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF002060"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF002060"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF002060"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF002060"/>
+        <color rgb="FF319B62"/>
       </left>
       <right/>
       <top/>
@@ -1492,9 +1237,133 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF319B62"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF319B62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
-        <color rgb="FF002060"/>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
@@ -1502,72 +1371,15 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF002060"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF002060"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
-        <color rgb="FF002060"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF002060"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF002060"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF002060"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF002060"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF002060"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF002060"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF002060"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1576,208 +1388,156 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="53">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2269,501 +2029,476 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="批量创建监听器-TCP-UDP"/>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H79" sqref="A1:I79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="46.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="7" width="18.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" style="1" customWidth="1"/>
-    <col min="11" max="17" width="9" style="1"/>
+    <col min="6" max="6" width="18.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="1" customWidth="1"/>
+    <col min="10" max="16" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="48" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="24" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="I2" s="41" t="s">
+      <c r="G2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="H2" s="32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="67" t="s">
+      <c r="I2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="68" t="s">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="G3" s="31" t="s">
+      <c r="E3" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="69" t="s">
+      <c r="G3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="H3" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="I3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1">
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="13">
         <v>8888</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="36"/>
+      <c r="I4" s="41"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="38"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="1">
         <v>8888</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="37"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="50" t="s">
+      <c r="G5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
+      <c r="H5" s="36"/>
+      <c r="I5" s="41"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="D6" s="1">
         <v>8889</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1">
         <v>60</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="38"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
+      <c r="G6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="D7" s="1">
         <v>8890</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="38"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
+      <c r="G7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="41"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="D8" s="1">
         <v>8891</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1">
         <v>120</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="39"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
+      <c r="G8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="41"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="38"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
+      <c r="G9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="D10" s="1">
         <v>20001</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="38"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
+      <c r="G10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="36"/>
+      <c r="I10" s="41"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="D11" s="1">
         <v>20002</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="38"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="51" t="s">
+      <c r="G11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="36"/>
+      <c r="I11" s="41"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="D12" s="1">
         <v>20003</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="40"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
+      <c r="G12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="36"/>
+      <c r="I12" s="41"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="1">
         <v>20004</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="38"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
+      <c r="G13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="36"/>
+      <c r="I13" s="41"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="D14" s="1">
         <v>20005</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="38"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="51" t="s">
+      <c r="G14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
+      <c r="H14" s="36"/>
+      <c r="I14" s="41"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="D15" s="1">
         <v>8891</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F15" s="1">
         <v>120</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="39"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
+      <c r="G15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="36"/>
+      <c r="I15" s="41"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="D16" s="1">
         <v>8892</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F16" s="1">
         <v>120</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>19</v>
+      <c r="G16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="36"/>
+      <c r="I16" s="41"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="D17" s="1">
         <v>8893</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F17" s="1">
         <v>120</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="40"/>
-    </row>
-    <row r="18" spans="1:10" ht="13" customHeight="1" thickBot="1">
-      <c r="A18" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="28">
+      <c r="G17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="36"/>
+      <c r="I17" s="41"/>
+    </row>
+    <row r="18" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="17">
         <v>8894</v>
       </c>
-      <c r="E18" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="28">
+      <c r="E18" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="17">
         <v>120</v>
       </c>
-      <c r="G18" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="40"/>
-    </row>
-    <row r="19" spans="1:10" ht="16" customHeight="1">
-      <c r="G19" s="34"/>
-    </row>
-    <row r="20" spans="1:10" ht="16" customHeight="1">
+      <c r="G18" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="38"/>
+      <c r="I18" s="42"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.95" customHeight="1"/>
+    <row r="20" spans="1:9" ht="15.95" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2771,720 +2506,162 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="60"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="26"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="26"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="47"/>
+    </row>
+    <row r="21" spans="1:9" ht="182.25" customHeight="1">
+      <c r="A21" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="30"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="I20:J20"/>
+  <mergeCells count="3">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A21:I21"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D26CA9-62D6-0745-B5F8-A1CD7417107E}">
-  <dimension ref="A1:L21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="52" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1">
-        <v>8888</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1">
-        <v>8888</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1">
-        <v>8889</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1">
-        <v>60</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1">
-        <v>8890</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1">
-        <v>8891</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1">
-        <v>120</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1">
-        <v>20001</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1">
-        <v>20002</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1">
-        <v>20003</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="1">
-        <v>20004</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="1">
-        <v>20005</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1">
-        <v>8891</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="1">
-        <v>120</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="1">
-        <v>8892</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="1">
-        <v>120</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="1">
-        <v>8893</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="1">
-        <v>120</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="16" thickBot="1">
-      <c r="A18" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="28">
-        <v>8894</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="28">
-        <v>120</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="60"/>
-    </row>
-    <row r="21" spans="1:12" ht="284" customHeight="1">
-      <c r="A21" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A21:J21"/>
-  </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="批量创建监听器-7层规则-启用SNI-本期不支持"/>
   <dimension ref="A1:Y81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="46.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="7" width="14.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="14.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" customWidth="1"/>
-    <col min="9" max="14" width="18.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.1640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="46.83203125" style="10" customWidth="1"/>
+    <col min="9" max="14" width="18.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="46.85546875" style="10" customWidth="1"/>
     <col min="18" max="18" width="17" style="1" customWidth="1"/>
     <col min="19" max="25" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
+        <v>49</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D3" s="13">
         <v>80</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I3" s="13">
         <v>0</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
@@ -3493,42 +2670,42 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1">
         <v>80</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
@@ -3536,40 +2713,40 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1">
         <v>443</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I5" s="1">
         <v>60</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
@@ -3577,40 +2754,40 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1">
         <v>443</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
@@ -3618,40 +2795,40 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1">
         <v>443</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I7" s="1">
         <v>120</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -3659,37 +2836,37 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1">
         <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -3697,37 +2874,37 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1">
         <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
@@ -3735,37 +2912,37 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1">
         <v>443</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
@@ -3773,43 +2950,43 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1">
         <v>443</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
@@ -3817,43 +2994,43 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D12" s="1">
         <v>443</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -3861,43 +3038,43 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D13" s="1">
         <v>443</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -3905,46 +3082,46 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D14" s="1">
         <v>443</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I14" s="1">
         <v>120</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="N14" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -3952,46 +3129,46 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1">
         <v>443</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I15" s="1">
         <v>120</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="N15" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -3999,168 +3176,168 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D16" s="1">
         <v>443</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I16" s="1">
         <v>120</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="N16" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="1:16" ht="13" customHeight="1">
+    <row r="17" spans="1:16" ht="12.95" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D17" s="17">
         <v>443</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I17" s="17">
         <v>120</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L17" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="M17" s="17" t="s">
-        <v>72</v>
-      </c>
       <c r="N17" s="17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="1:16" ht="16" customHeight="1">
+    <row r="18" spans="1:16" ht="15.95" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O18" s="64"/>
-      <c r="P18" s="60"/>
+        <v>87</v>
+      </c>
+      <c r="O18" s="52"/>
+      <c r="P18" s="47"/>
     </row>
     <row r="19" spans="1:16" ht="18" customHeight="1">
       <c r="K19" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="4:18">
-      <c r="D81" s="65"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="65"/>
-      <c r="G81" s="65"/>
-      <c r="H81" s="65"/>
-      <c r="I81" s="66"/>
-      <c r="J81" s="65"/>
-      <c r="K81" s="65"/>
-      <c r="L81" s="65"/>
-      <c r="M81" s="65"/>
-      <c r="N81" s="65"/>
-      <c r="O81" s="65"/>
-      <c r="P81" s="65"/>
-      <c r="Q81" s="66"/>
-      <c r="R81" s="66"/>
+      <c r="D81" s="49"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="49"/>
+      <c r="G81" s="49"/>
+      <c r="H81" s="49"/>
+      <c r="I81" s="50"/>
+      <c r="J81" s="49"/>
+      <c r="K81" s="49"/>
+      <c r="L81" s="49"/>
+      <c r="M81" s="49"/>
+      <c r="N81" s="49"/>
+      <c r="O81" s="49"/>
+      <c r="P81" s="49"/>
+      <c r="Q81" s="50"/>
+      <c r="R81" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4176,115 +3353,115 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" style="1" customWidth="1"/>
     <col min="15" max="15" width="17" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" style="1" customWidth="1"/>
     <col min="17" max="17" width="7" style="1" customWidth="1"/>
-    <col min="18" max="18" width="46.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="46.85546875" style="1" customWidth="1"/>
     <col min="19" max="19" width="17" style="1" customWidth="1"/>
     <col min="20" max="26" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="28.5">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1">
         <v>8888</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J2" s="1">
         <v>8000</v>
@@ -4293,45 +3470,45 @@
         <v>50</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M2" s="1">
         <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="R2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="28.5">
+      <c r="A3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1">
         <v>8888</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J3" s="1">
         <v>8000</v>
@@ -4340,563 +3517,563 @@
         <v>50</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="R3" s="6"/>
     </row>
-    <row r="4" spans="1:19" ht="30">
+    <row r="4" spans="1:19" ht="57">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1">
         <v>8889</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K4" s="1">
         <v>50</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M4" s="1">
         <v>60</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="30">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="57">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1">
         <v>8890</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J5" s="4">
         <v>8883</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="30">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="57">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1">
         <v>8891</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M6" s="1">
         <v>120</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="30">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="57">
       <c r="A7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K7" s="4">
         <v>50</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="30">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="57">
       <c r="A8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1">
         <v>20002</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K8" s="4">
         <v>10</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="30">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="57">
       <c r="A9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1">
         <v>20002</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
       </c>
       <c r="N9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="57">
+      <c r="A10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="30">
-      <c r="A10" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1">
         <v>20003</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K10" s="1">
         <v>10</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="30">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="57">
       <c r="A11" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1">
         <v>20003</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="30">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="57">
       <c r="A12" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1">
         <v>20003</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="30">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="57">
       <c r="A13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F13" s="1">
         <v>8891</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M13" s="1">
         <v>120</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="57">
+      <c r="A14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="30">
-      <c r="A14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="M14" s="1">
         <v>120</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="13" customHeight="1"/>
-    <row r="17" spans="2:17" ht="16" customHeight="1"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="12.95" customHeight="1"/>
+    <row r="17" spans="2:17" ht="15.95" customHeight="1"/>
     <row r="18" spans="2:17" ht="234" customHeight="1">
-      <c r="B18" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
+      <c r="B18" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4907,29 +4084,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1">
         <v>8888</v>
@@ -4937,19 +4114,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1">
         <v>8888</v>
@@ -4957,19 +4134,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1">
         <v>8889</v>
@@ -4977,19 +4154,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1">
         <v>8890</v>
@@ -4997,19 +4174,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1">
         <v>8891</v>
@@ -5017,139 +4194,139 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.5">
       <c r="A7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1">
         <v>20002</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30">
+    <row r="8" spans="1:6" ht="28.5">
       <c r="A8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1">
         <v>20002</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30">
+    <row r="9" spans="1:6" ht="28.5">
       <c r="A9" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1">
         <v>20003</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6" ht="28.5">
       <c r="A10" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1">
         <v>20003</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30">
+    <row r="11" spans="1:6" ht="28.5">
       <c r="A11" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1">
         <v>20003</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="60">
+    <row r="12" spans="1:6" ht="57">
       <c r="A12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F12" s="1">
         <v>8891</v>
@@ -5157,22 +4334,22 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -5181,83 +4358,83 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="(本期不支持)批量调整权重"/>
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="46.1640625" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" customWidth="1"/>
-    <col min="13" max="13" width="53.6640625" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="14">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="14.25">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="28.5">
       <c r="A2" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1">
         <v>8888</v>
@@ -5265,7 +4442,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J2" s="1">
         <v>8000</v>
@@ -5277,24 +4454,24 @@
         <v>50</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="30">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="28.5">
       <c r="A3" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1">
         <v>8889</v>
@@ -5302,10 +4479,10 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K3" s="4">
         <v>20</v>
@@ -5314,24 +4491,24 @@
         <v>50</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="30">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="28.5">
       <c r="A4" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1">
         <v>8890</v>
@@ -5339,36 +4516,36 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J4" s="4">
         <v>8883</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="30">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="28.5">
       <c r="A5" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1">
         <v>8891</v>
@@ -5376,47 +4553,47 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="28.5">
+      <c r="A6" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="18">
-      <c r="A6" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K6" s="4">
         <v>35</v>
@@ -5425,39 +4602,39 @@
         <v>50</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="30">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="28.5">
       <c r="A7" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1">
         <v>20002</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K7" s="4">
         <v>20</v>
@@ -5466,80 +4643,80 @@
         <v>10</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="30">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="28.5">
       <c r="A8" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1">
         <v>20002</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="30">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="28.5">
       <c r="A9" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1">
         <v>20003</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K9" s="4">
         <v>20</v>
@@ -5548,106 +4725,106 @@
         <v>10</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="30">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="28.5">
       <c r="A10" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1">
         <v>20003</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="30">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="28.5">
       <c r="A11" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1">
         <v>20003</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="30">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="28.5">
       <c r="A12" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F12" s="1">
         <v>8891</v>
@@ -5655,56 +4832,56 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K12" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="28.5">
+      <c r="A13" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="30">
-      <c r="A13" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="B13" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
